--- a/exports/Winter2024_Undergrad.xlsx
+++ b/exports/Winter2024_Undergrad.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="5311573289207638505" xfId="1" hidden="0"/>
-    <cellStyle name="6389168864130269670" xfId="2" hidden="0"/>
+    <cellStyle name="-5574664374842719174" xfId="1" hidden="0"/>
+    <cellStyle name="-8633991114328862649" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/exports/Winter2024_Undergrad.xlsx
+++ b/exports/Winter2024_Undergrad.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-5574664374842719174" xfId="1" hidden="0"/>
-    <cellStyle name="-8633991114328862649" xfId="2" hidden="0"/>
+    <cellStyle name="-9215670231122234191" xfId="1" hidden="0"/>
+    <cellStyle name="-5967137815741372453" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L369"/>
+  <dimension ref="A1:L374"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,12 +3891,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>COMM-101</t>
+          <t>CILE-101</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Rhetoric &amp; Writing</t>
+          <t>First Year Foundations</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>COMM-311</t>
+          <t>CILE-400</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Rhetorical Principles of Persuasion</t>
+          <t>Undergraduate Thesis Initiation</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -3940,12 +3940,12 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
@@ -3959,12 +3959,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>COMM-313</t>
+          <t>CILE-401</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Rhetorical Principles of Public Speaking</t>
+          <t>Undergraduate Thesis Completion</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr"/>
@@ -3993,12 +3993,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>COMM-314</t>
+          <t>CILE-490</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>Superheroes in Media and Culture</t>
+          <t>Multidisciplinary Capstone</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior 1</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr"/>
@@ -4027,12 +4027,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>COMM-391</t>
+          <t>CILE-499</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Communications Special Topics</t>
+          <t>On-Campus Experiential Learning</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
@@ -4061,12 +4061,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>COMM-397</t>
+          <t>COMM-101</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>Communications Free Elective</t>
+          <t>Rhetoric &amp; Writing</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -4095,12 +4095,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>COMM-401</t>
+          <t>COMM-311</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Communicating about Data</t>
+          <t>Rhetorical Principles of Persuasion</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
@@ -4129,12 +4129,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>COMM-435</t>
+          <t>COMM-313</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>Written &amp; Oral Communication for Overseas Students</t>
+          <t>Rhetorical Principles of Public Speaking</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -4144,12 +4144,12 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr"/>
@@ -4163,12 +4163,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>CS-100</t>
+          <t>COMM-314</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Programming &amp; Computation</t>
+          <t>Superheroes in Media and Culture</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>CS-101</t>
+          <t>COMM-391</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>Computing &amp; Algorithms I</t>
+          <t>Communications Special Topics</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
@@ -4231,12 +4231,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>COMM-397</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Computing &amp; Algorithms II</t>
+          <t>Communications Free Elective</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>CS-101</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -4265,12 +4265,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>CS-203</t>
+          <t>COMM-401</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Computing &amp; Algorithms III</t>
+          <t>Communicating about Data</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -4280,12 +4280,12 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>CS-102 and CS-211</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
@@ -4299,12 +4299,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>CS-211</t>
+          <t>COMM-435</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Discrete Mathematics</t>
+          <t>Written &amp; Oral Communication for Overseas Students</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>MATH-101 or MATH-101X or MATH-101H</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
@@ -4333,12 +4333,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>CS-231</t>
+          <t>CS-100</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>Programming Language Paradigms</t>
+          <t>Introduction to Programming &amp; Computation</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
@@ -4367,12 +4367,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>CS-300</t>
+          <t>CS-101</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>The Computing Professional</t>
+          <t>Computing &amp; Algorithms I</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -4382,12 +4382,12 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>COMM-101 and (CS-102 or CE-210)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
@@ -4401,12 +4401,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>CS-304</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>User Experience and Interface Design</t>
+          <t>Computing &amp; Algorithms II</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>CS-101 or ECE-101 or IME-211</t>
+          <t>CS-101</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -4435,12 +4435,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>CS-312</t>
+          <t>CS-203</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Theory of Computation</t>
+          <t>Computing &amp; Algorithms III</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -4469,12 +4469,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>CS-320</t>
+          <t>CS-211</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>Computer Graphics</t>
+          <t>Discrete Mathematics</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>(MATH-101 or MATH-101X) and CS-102</t>
+          <t>MATH-101 or MATH-101X or MATH-101H</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
@@ -4503,12 +4503,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>CS-341</t>
+          <t>CS-231</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Modern Web Applications</t>
+          <t>Programming Language Paradigms</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>CS-351</t>
+          <t>CS-300</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>Cloud Computing</t>
+          <t>The Computing Professional</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>COMM-101 and (CS-102 or CE-210)</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr"/>
@@ -4571,12 +4571,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>CS-355</t>
+          <t>CS-304</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Cybersecurity</t>
+          <t>User Experience and Interface Design</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -4605,12 +4605,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>CS-381</t>
+          <t>CS-312</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>Ethical Hacking</t>
+          <t>Theory of Computation</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -4620,12 +4620,12 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>CS-101 or ECE-101 or IME-211</t>
+          <t>CS-102 and CS-211</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr"/>
@@ -4639,12 +4639,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>CS-385</t>
+          <t>CS-320</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Elements of Game Design</t>
+          <t>Computer Graphics</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>(MATH-101 or MATH-101X) and CS-102</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr"/>
@@ -4673,12 +4673,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>CS-391</t>
+          <t>CS-341</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>CS Special Topics</t>
+          <t>Modern Web Applications</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
@@ -4707,12 +4707,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>CS-415</t>
+          <t>CS-351</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Cryptography</t>
+          <t>Cloud Computing</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -4722,12 +4722,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>CS-102 and CS-211</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -4741,12 +4741,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>CS-420</t>
+          <t>CS-355</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>Virtual Reality</t>
+          <t>Introduction to Cybersecurity</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>CS-101 or ECE-101 or IME-211</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
@@ -4775,12 +4775,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>CS-425</t>
+          <t>CS-381</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Parallel Programming and Algorithms</t>
+          <t>Ethical Hacking</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>CS-231</t>
+          <t>CS-101 or ECE-101 or IME-211</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -4809,12 +4809,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>CS-441</t>
+          <t>CS-385</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>Foundations of Data Science</t>
+          <t>Elements of Game Design</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -4843,12 +4843,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CS-451</t>
+          <t>CS-391</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>CS Special Topics</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>CS-231</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
@@ -4877,12 +4877,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>CS-457</t>
+          <t>CS-415</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>Wireless and Mobile Security</t>
+          <t>Cryptography</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>CS-102 and CS-211</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>CS-458</t>
+          <t>CS-420</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Digital Forensics</t>
+          <t>Virtual Reality</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -4945,12 +4945,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>CS-461</t>
+          <t>CS-425</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>Database Systems</t>
+          <t>Parallel Programming and Algorithms</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -4960,12 +4960,12 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>CS-231</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
@@ -4979,12 +4979,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>CS-465</t>
+          <t>CS-441</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Information Retrieval and Data Mining</t>
+          <t>Foundations of Data Science</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr"/>
@@ -5013,12 +5013,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>CS-471</t>
+          <t>CS-451</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>Software Engineering</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>CS-102</t>
+          <t>CS-231</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr"/>
@@ -5047,12 +5047,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>CS-481</t>
+          <t>CS-457</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Wireless and Mobile Security</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -5081,12 +5081,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>CS-482</t>
+          <t>CS-458</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Digital Forensics</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr"/>
@@ -5115,12 +5115,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>CS-483</t>
+          <t>CS-461</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Algorithms for Deep Learning</t>
+          <t>Database Systems</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>CS-485</t>
+          <t>CS-465</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Advanced Game Development</t>
+          <t>Information Retrieval and Data Mining</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr"/>
@@ -5183,12 +5183,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>CS-498</t>
+          <t>CS-471</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Computer Science Study Abroad</t>
+          <t>Software Engineering</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -5198,12 +5198,12 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr"/>
@@ -5217,12 +5217,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>CS-499</t>
+          <t>CS-481</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>Computer Science Independent Study</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>ECON-201</t>
+          <t>CS-482</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Economic Principles</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
@@ -5285,12 +5285,12 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>ECON-342</t>
+          <t>CS-483</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>Intermediate Microeconomics: Managerial Economics</t>
+          <t>Algorithms for Deep Learning</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>ECON-201</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -5319,12 +5319,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>ECON-344</t>
+          <t>CS-485</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Intermediate Macroeconomics: Economic Growth and Fluctuation</t>
+          <t>Advanced Game Development</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -5334,12 +5334,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>ECON-201</t>
+          <t>CS-102</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -5353,12 +5353,12 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>ECON-348</t>
+          <t>CS-498</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>History of Economic Thought</t>
+          <t>Computer Science Study Abroad</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -5368,12 +5368,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>ECON-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -5387,12 +5387,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>ECON-352</t>
+          <t>CS-499</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>International Economics</t>
+          <t>Computer Science Independent Study</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -5402,12 +5402,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>ECON-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -5421,12 +5421,12 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>ECON-354</t>
+          <t>ECON-201</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Money and Banking</t>
+          <t>Economic Principles</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>ECON-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
@@ -5455,12 +5455,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>ECON-391</t>
+          <t>ECON-342</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Economics Special Topics</t>
+          <t>Intermediate Microeconomics: Managerial Economics</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -5489,12 +5489,12 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>ECON-499</t>
+          <t>ECON-344</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>Economics Independent Study</t>
+          <t>Intermediate Macroeconomics: Economic Growth and Fluctuation</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -5504,12 +5504,12 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>ECON-201</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -5523,12 +5523,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>ECE-100</t>
+          <t>ECON-348</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Principles of Electrical and Computer Engineering</t>
+          <t>History of Economic Thought</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -5538,12 +5538,12 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>ECON-201</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -5557,12 +5557,12 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>ECE-101</t>
+          <t>ECON-352</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>MATLAB and C Programming</t>
+          <t>International Economics</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>ECON-201</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -5591,12 +5591,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>ECE-291</t>
+          <t>ECON-354</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>ECE Special Topics</t>
+          <t>Money and Banking</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>ECON-201</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -5625,22 +5625,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>EE-210</t>
+          <t>ECON-391</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>Circuits I</t>
+          <t>Economics Special Topics</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>EE-211</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225 and (MATH-102 or MATH-102H or MATH-102X)</t>
+          <t>ECON-201</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
@@ -5659,17 +5659,17 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>EE-211</t>
+          <t>ECON-499</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Circuits I Lab</t>
+          <t>Economics Independent Study</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>EE-210</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>EE-212</t>
+          <t>ECE-100</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>Applied Electrical Circuits</t>
+          <t>Principles of Electrical and Computer Engineering</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>MATH-204, MECH-231L</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
@@ -5727,12 +5727,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>EE-240</t>
+          <t>ECE-101</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Electromagnetic Fields and Applications</t>
+          <t>MATLAB and C Programming</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
@@ -5761,12 +5761,12 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>EE-310</t>
+          <t>ECE-291</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>Circuits II</t>
+          <t>ECE Special Topics</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>EE-210 and (MATH-204 or MATH-204H)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
@@ -5795,27 +5795,27 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>EE-312</t>
+          <t>EE-210</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>PCB Design &amp; Testing</t>
+          <t>Circuits I</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>EE-211</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>ECE-101 and EE-320 and EE-321</t>
+          <t>PHYS-224 and PHYS-225 and (MATH-102 or MATH-102H or MATH-102X)</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr"/>
@@ -5829,22 +5829,22 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>EE-320</t>
+          <t>EE-211</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>Electronics I</t>
+          <t>Circuits I Lab</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>EE-321</t>
+          <t>EE-210</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>EE-210 and EE-211</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
@@ -5863,22 +5863,22 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>EE-321</t>
+          <t>EE-212</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Electronics I Laboratory</t>
+          <t>Applied Electrical Circuits</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>EE-320</t>
+          <t>MATH-204, MECH-231L</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>EE-210 and EE-211</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
@@ -5897,12 +5897,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>EE-325</t>
+          <t>EE-240</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>Principles of Microelectronics Processing</t>
+          <t>Electromagnetic Fields and Applications</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>EE-320 and EE-321</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
@@ -5931,12 +5931,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>EE-336</t>
+          <t>EE-310</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Continuous-Time Signals and Systems</t>
+          <t>Circuits II</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -5946,12 +5946,12 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and EE-210</t>
+          <t>EE-210 and (MATH-204 or MATH-204H)</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr"/>
@@ -5965,12 +5965,12 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>EE-338</t>
+          <t>EE-312</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>Discrete-Time Signals and Systems</t>
+          <t>PCB Design &amp; Testing</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -5980,12 +5980,12 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and EE-210</t>
+          <t>ECE-101 and EE-320 and EE-321</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr"/>
@@ -5999,22 +5999,22 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>EE-340</t>
+          <t>EE-320</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Electromagnetic Wave Propagation</t>
+          <t>Electronics I</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>EE-321</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>EE-240</t>
+          <t>EE-210 and EE-211</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
@@ -6033,22 +6033,22 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>EE-342</t>
+          <t>EE-321</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>Electrical Machines</t>
+          <t>Electronics I Laboratory</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>EE-310</t>
+          <t>EE-320</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>EE-210 and EE-211 and EE-240</t>
+          <t>EE-210 and EE-211</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
@@ -6067,12 +6067,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>EE-346</t>
+          <t>EE-325</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>High Voltage Generation and Measurement Techniques</t>
+          <t>Principles of Microelectronics Processing</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>EE-210 and EE-211 and EE-240</t>
+          <t>EE-320 and EE-321</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -6101,12 +6101,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>EE-348</t>
+          <t>EE-336</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>Electromagnetic Compatibility</t>
+          <t>Continuous-Time Signals and Systems</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>EE-210 and EE-240</t>
+          <t>(MATH-204 or MATH-204H) and EE-210</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -6135,12 +6135,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>EE-399</t>
+          <t>EE-338</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>EE Independent Study</t>
+          <t>Discrete-Time Signals and Systems</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -6150,12 +6150,12 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(MATH-204 or MATH-204H) and EE-210</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
@@ -6169,12 +6169,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>EE-410</t>
+          <t>EE-340</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>eMobility System Analysis &amp; Control</t>
+          <t>Electromagnetic Wave Propagation</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>ECE-101 and (EE-210 and EE-211)</t>
+          <t>EE-240</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
@@ -6203,22 +6203,22 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>EE-420</t>
+          <t>EE-342</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Electronics II</t>
+          <t>Electrical Machines</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>EE-310</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>EE-310 and EE-320 and EE-321</t>
+          <t>EE-210 and EE-211 and EE-240</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
@@ -6237,12 +6237,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>EE-421</t>
+          <t>EE-346</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>Energy Storage Systems with EV Applications</t>
+          <t>High Voltage Generation and Measurement Techniques</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>(EE-210 and EE-211) or EE-212</t>
+          <t>EE-210 and EE-211 and EE-240</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
@@ -6271,12 +6271,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>EE-424</t>
+          <t>EE-348</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>Power Electronics and Applications</t>
+          <t>Electromagnetic Compatibility</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>EE-310 and EE-320 and EE-321</t>
+          <t>EE-210 and EE-240</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -6305,12 +6305,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>EE-427</t>
+          <t>EE-399</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>Semiconductor Device Fundamentals</t>
+          <t>EE Independent Study</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>EE-320</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -6339,12 +6339,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>EE-430</t>
+          <t>EE-410</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>Communication Systems</t>
+          <t>eMobility System Analysis &amp; Control</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>EE-310 and EE-320 and MATH-258 and (EE-336 or EE-338)</t>
+          <t>ECE-101 and (EE-210 and EE-211)</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr"/>
@@ -6373,12 +6373,12 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>EE-432</t>
+          <t>EE-420</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>Feedback Control Systems</t>
+          <t>Electronics II</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>EE-310 or EE-336</t>
+          <t>EE-310 and EE-320 and EE-321</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
@@ -6407,12 +6407,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>EE-433</t>
+          <t>EE-421</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Digital Control Systems</t>
+          <t>Energy Storage Systems with EV Applications</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -6422,12 +6422,12 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>EE-338 and EE-432</t>
+          <t>(EE-210 and EE-211) or EE-212</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Senior 1</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F174" s="2" t="inlineStr"/>
@@ -6441,12 +6441,12 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>EE-434</t>
+          <t>EE-424</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Power Electronics and Applications</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>ECE-101 and EE-338</t>
+          <t>EE-310 and EE-320 and EE-321</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
@@ -6475,12 +6475,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>EE-443</t>
+          <t>EE-427</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Fundamentals of Power Systems</t>
+          <t>Semiconductor Device Fundamentals</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>EE-210 and EE-211</t>
+          <t>EE-320</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
@@ -6509,12 +6509,12 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>EE-444</t>
+          <t>EE-430</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>Computational Methods in Power Systems</t>
+          <t>Communication Systems</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>EE-344</t>
+          <t>EE-310 and EE-320 and MATH-258 and (EE-336 or EE-338)</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
@@ -6543,12 +6543,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>EE-446</t>
+          <t>EE-432</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Vector Control of AC Electric Machines</t>
+          <t>Feedback Control Systems</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>EE-240 and EE-310 and EE-320 and EE-321</t>
+          <t>EE-310 or EE-336</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
@@ -6577,27 +6577,27 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>EE-482</t>
+          <t>EE-433</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>Robot Dynamics and Control</t>
+          <t>Digital Control Systems</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>EE-432</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>EE-338 and EE-432</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior 1</t>
         </is>
       </c>
       <c r="F179" s="2" t="inlineStr"/>
@@ -6611,12 +6611,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>EE-490</t>
+          <t>EE-434</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Senior Electrical Engineering Design Project</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -6626,12 +6626,12 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>CE-320 and EE-240 and EE-310 and EE-320 and EE-321 and (EE-336 or EE-338)</t>
+          <t>ECE-101 and EE-338</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F180" s="2" t="inlineStr"/>
@@ -6645,12 +6645,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>ENGR-490</t>
+          <t>EE-443</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>Senior Multidisciplinary Engineering Design Project</t>
+          <t>Fundamentals of Power Systems</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -6660,12 +6660,12 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>EE-210 and EE-211</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F181" s="2" t="inlineStr"/>
@@ -6679,12 +6679,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>EP-235</t>
+          <t>EE-444</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Computers in Physics</t>
+          <t>Computational Methods in Power Systems</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -6694,12 +6694,12 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>EE-344</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr"/>
@@ -6713,12 +6713,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>EP-335</t>
+          <t>EE-446</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>Computational Physics</t>
+          <t>Vector Control of AC Electric Machines</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>EE-240 and EE-310 and EE-320 and EE-321</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr"/>
@@ -6747,27 +6747,27 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>EP-342</t>
+          <t>EE-482</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Materials Science and Engineering</t>
+          <t>Robot Dynamics and Control</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>EE-432</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225 and (CHEM-135 or CHEM-137)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr"/>
@@ -6781,12 +6781,12 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>EP-446</t>
+          <t>EE-490</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>Solid State Physics</t>
+          <t>Senior Electrical Engineering Design Project</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and PHYS-362</t>
+          <t>CE-320 and EE-240 and EE-310 and EE-320 and EE-321 and (EE-336 or EE-338)</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F185" s="2" t="inlineStr"/>
@@ -6815,12 +6815,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>EP-485</t>
+          <t>ENGR-490</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Acoustic Testing and Modeling</t>
+          <t>Senior Multidisciplinary Engineering Design Project</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -6830,12 +6830,12 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and PHYS-302</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F186" s="2" t="inlineStr"/>
@@ -6849,12 +6849,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>HIST-306</t>
+          <t>EP-235</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>International Relations</t>
+          <t>Computers in Physics</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
@@ -6883,12 +6883,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>HIST-308</t>
+          <t>EP-335</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>America and the World</t>
+          <t>Computational Physics</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
@@ -6917,12 +6917,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>HIST-319</t>
+          <t>EP-342</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>The Rise of the Global Community</t>
+          <t>Introduction to Materials Science and Engineering</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>PHYS-224 and PHYS-225 and (CHEM-135 or CHEM-137)</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F189" s="2" t="inlineStr"/>
@@ -6951,12 +6951,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>HIST-320</t>
+          <t>EP-446</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Modern Middle  East</t>
+          <t>Solid State Physics</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -6966,12 +6966,12 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>(MATH-204 or MATH-204H) and PHYS-362</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F190" s="2" t="inlineStr"/>
@@ -6985,12 +6985,12 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>HIST-322</t>
+          <t>EP-485</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Africa in the World Economy</t>
+          <t>Acoustic Testing and Modeling</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>(MATH-204 or MATH-204H) and PHYS-302</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr">
@@ -7019,12 +7019,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>HIST-329</t>
+          <t>HIST-306</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Science, Technology, and the Modern World</t>
+          <t>International Relations</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="E192" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F192" s="2" t="inlineStr"/>
@@ -7053,12 +7053,12 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>HIST-391</t>
+          <t>HIST-308</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>History Special Topics</t>
+          <t>America and the World</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="E193" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F193" s="2" t="inlineStr"/>
@@ -7087,12 +7087,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>HIST-499</t>
+          <t>HIST-319</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>History Independent Study</t>
+          <t>The Rise of the Global Community</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -7121,12 +7121,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>HUMN-380</t>
+          <t>HIST-320</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anticipating Futures: Technology, Nature, Society</t>
+          <t>Modern Middle  East</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="E195" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F195" s="2" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>HUMN-391</t>
+          <t>HIST-322</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>Special Topics in Humanities</t>
+          <t>Africa in the World Economy</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -7189,12 +7189,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>HUMN-499</t>
+          <t>HIST-329</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>Humanities Independent Study</t>
+          <t>Science, Technology, and the Modern World</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F197" s="2" t="inlineStr"/>
@@ -7223,12 +7223,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IME-100</t>
+          <t>HIST-391</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Interdisciplinary Design and Manufacturing</t>
+          <t>History Special Topics</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
@@ -7257,12 +7257,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IME-200</t>
+          <t>HIST-499</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Industrial Engineering</t>
+          <t>History Independent Study</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -7291,12 +7291,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IME-211</t>
+          <t>HUMN-380</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Algorithms and Computer Programming</t>
+          <t xml:space="preserve"> Anticipating Futures: Technology, Nature, Society</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -7325,12 +7325,12 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IME-300</t>
+          <t>HUMN-391</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>Manufacturing Processes</t>
+          <t>Special Topics in Humanities</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>IME-100</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
@@ -7359,12 +7359,12 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>IME-321</t>
+          <t>HUMN-499</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>Operations Research - Deterministic Models</t>
+          <t>Humanities Independent Study</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
@@ -7374,12 +7374,12 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>IME-200</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F202" s="2" t="inlineStr"/>
@@ -7393,12 +7393,12 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>IME-332</t>
+          <t>IME-100</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>Engineering Statistics</t>
+          <t>Interdisciplinary Design and Manufacturing</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
@@ -7408,12 +7408,12 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr">
         <is>
-          <t>Sophomore 2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F203" s="2" t="inlineStr"/>
@@ -7427,12 +7427,12 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>IME-351</t>
+          <t>IME-200</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Engineering Economics</t>
+          <t>Introduction to Industrial Engineering</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>MATH-101 or MATH-101X</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F204" s="2" t="inlineStr"/>
@@ -7461,12 +7461,12 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>IME-361</t>
+          <t>IME-211</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>Lean Work Design</t>
+          <t>Algorithms and Computer Programming</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -7476,12 +7476,12 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F205" s="2" t="inlineStr"/>
@@ -7495,12 +7495,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>IME-403</t>
+          <t>IME-300</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Computer Numerical Control Machining</t>
+          <t>Manufacturing Processes</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="E206" s="2" t="inlineStr">
         <is>
-          <t>Junior 2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F206" s="2" t="inlineStr"/>
@@ -7529,12 +7529,12 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>IME-408</t>
+          <t>IME-321</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>Industrial Robotics</t>
+          <t>Operations Research - Deterministic Models</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>MECH-100 and IME-100</t>
+          <t>IME-200</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr">
         <is>
-          <t>Junior 2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F207" s="2" t="inlineStr"/>
@@ -7563,12 +7563,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>IME-409</t>
+          <t>IME-332</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>Computer Integrated Manufacturing</t>
+          <t>Engineering Statistics</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -7578,12 +7578,12 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>MECH-100</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
         <is>
-          <t>Junior 2</t>
+          <t>Sophomore 2</t>
         </is>
       </c>
       <c r="F208" s="2" t="inlineStr"/>
@@ -7597,12 +7597,12 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>IME-412</t>
+          <t>IME-351</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>Applied Control Systems Design</t>
+          <t>Engineering Economics</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -7612,12 +7612,12 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>IME-100 and (IME-211 or ECE-101 or CS-101)</t>
+          <t>MATH-101 or MATH-101X</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
         <is>
-          <t>Junior 2</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F209" s="2" t="inlineStr"/>
@@ -7631,12 +7631,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>IME-414</t>
+          <t>IME-361</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>Design for Manufacturing and Assembly</t>
+          <t>Lean Work Design</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -7646,12 +7646,12 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>IME-300</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F210" s="2" t="inlineStr"/>
@@ -7665,12 +7665,12 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>IME-422</t>
+          <t>IME-403</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>Simulation</t>
+          <t>Computer Numerical Control Machining</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
@@ -7680,12 +7680,12 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>IME-100</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior 2</t>
         </is>
       </c>
       <c r="F211" s="2" t="inlineStr"/>
@@ -7699,27 +7699,27 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>IME-452</t>
+          <t>IME-408</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>Production System Design</t>
+          <t>Industrial Robotics</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>IME-351</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>IME-321 and MATH-258</t>
+          <t>MECH-100 and IME-100</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Junior 2</t>
         </is>
       </c>
       <c r="F212" s="2" t="inlineStr"/>
@@ -7733,12 +7733,12 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>IME-453</t>
+          <t>IME-409</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>Supply Chain Design</t>
+          <t>Computer Integrated Manufacturing</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>IME-452</t>
+          <t>MECH-100</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior 2</t>
         </is>
       </c>
       <c r="F213" s="2" t="inlineStr"/>
@@ -7767,12 +7767,12 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>IME-454</t>
+          <t>IME-412</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>Senior Design Project</t>
+          <t>Applied Control Systems Design</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
@@ -7782,12 +7782,12 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>IME-100 and (IME-211 or ECE-101 or CS-101)</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr">
         <is>
-          <t>Senior II</t>
+          <t>Junior 2</t>
         </is>
       </c>
       <c r="F214" s="2" t="inlineStr"/>
@@ -7801,12 +7801,12 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>IME-462</t>
+          <t>IME-414</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>Ergonomics</t>
+          <t>Design for Manufacturing and Assembly</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>MECH-210 and MATH-258</t>
+          <t>IME-300</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr">
@@ -7835,12 +7835,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>IME-463</t>
+          <t>IME-422</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>Safety and Human Factors</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -7850,12 +7850,12 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F216" s="2" t="inlineStr"/>
@@ -7869,27 +7869,27 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>IME-464</t>
+          <t>IME-452</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>Cognitive Work</t>
+          <t>Production System Design</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>IME-351</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>LA-201</t>
+          <t>IME-321 and MATH-258</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F217" s="2" t="inlineStr"/>
@@ -7903,12 +7903,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>IME-465</t>
+          <t>IME-453</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Human-Computer Interaction and Interface Design</t>
+          <t>Supply Chain Design</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -7918,12 +7918,12 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>IME-452</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F218" s="2" t="inlineStr"/>
@@ -7937,12 +7937,12 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>IME-471</t>
+          <t>IME-454</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>Quality Control</t>
+          <t>Senior Design Project</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Senior II</t>
         </is>
       </c>
       <c r="F219" s="2" t="inlineStr"/>
@@ -7971,12 +7971,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>IME-473</t>
+          <t>IME-462</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>Design of Experiments</t>
+          <t>Ergonomics</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -7986,12 +7986,12 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>MECH-210 and MATH-258</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F220" s="2" t="inlineStr"/>
@@ -8005,12 +8005,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>IME-476</t>
+          <t>IME-463</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>Lean Six Sigma</t>
+          <t>Safety and Human Factors</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -8020,12 +8020,12 @@
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F221" s="2" t="inlineStr"/>
@@ -8039,12 +8039,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>IME-498</t>
+          <t>IME-464</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>Industrial Engineering Study Abroad</t>
+          <t>Cognitive Work</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr">
@@ -8073,12 +8073,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>IME-499</t>
+          <t>IME-465</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>Industrial Engineering Independent Study</t>
+          <t>Human-Computer Interaction and Interface Design</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="E223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F223" s="2" t="inlineStr"/>
@@ -8107,12 +8107,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>IME-564</t>
+          <t>IME-471</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>Ethics and Practice of Engineering</t>
+          <t>Quality Control</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F224" s="2" t="inlineStr"/>
@@ -8141,12 +8141,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>LANG-297</t>
+          <t>IME-473</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>LANG Elective</t>
+          <t>Design of Experiments</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F225" s="2" t="inlineStr"/>
@@ -8175,12 +8175,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>LA-201</t>
+          <t>IME-476</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>Sophomore Seminar: Exploring the Human Condition</t>
+          <t>Lean Six Sigma</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -8190,12 +8190,12 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>COMM-101</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F226" s="2" t="inlineStr"/>
@@ -8209,12 +8209,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>LA-489</t>
+          <t>IME-498</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>Sr. Seminar:Leadership, Ethics</t>
+          <t>Industrial Engineering Study Abroad</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr">
@@ -8243,12 +8243,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>LIT-304</t>
+          <t>IME-499</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>American Literature and Philosophy</t>
+          <t>Industrial Engineering Independent Study</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr">
@@ -8277,12 +8277,12 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>LIT-307</t>
+          <t>IME-564</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>Poetry: Substance and Structure</t>
+          <t>Ethics and Practice of Engineering</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -8292,12 +8292,12 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F229" s="2" t="inlineStr"/>
@@ -8311,12 +8311,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>LIT-309</t>
+          <t>LANG-297</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>The Literature of Multicultural America</t>
+          <t>LANG Elective</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -8326,12 +8326,12 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F230" s="2" t="inlineStr"/>
@@ -8345,12 +8345,12 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>LIT-310</t>
+          <t>LA-201</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>African American Literature</t>
+          <t>Sophomore Seminar: Exploring the Human Condition</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>COMM-101</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F231" s="2" t="inlineStr"/>
@@ -8379,12 +8379,12 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>LIT-311</t>
+          <t>LA-489</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>Literatures of the African Diaspora</t>
+          <t>Sr. Seminar:Leadership, Ethics</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -8413,12 +8413,12 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>LIT-312</t>
+          <t>LIT-304</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>Literatures of Migration</t>
+          <t>American Literature and Philosophy</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -8447,12 +8447,12 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>LIT-320</t>
+          <t>LIT-307</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>Literature &amp; Environmental Justice</t>
+          <t>Poetry: Substance and Structure</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -8481,12 +8481,12 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>LIT-372</t>
+          <t>LIT-309</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>Masterpieces of Literature</t>
+          <t>The Literature of Multicultural America</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -8515,12 +8515,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>LIT-374</t>
+          <t>LIT-310</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>Seminar on J.R.R. Tolkien</t>
+          <t>African American Literature</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="E236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F236" s="2" t="inlineStr"/>
@@ -8549,12 +8549,12 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>LIT-391</t>
+          <t>LIT-311</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>Literature Special Topics</t>
+          <t>Literatures of the African Diaspora</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -8583,12 +8583,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>LIT-397</t>
+          <t>LIT-312</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>Literature Free Elective</t>
+          <t>Literatures of Migration</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -8617,12 +8617,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>LIT-399</t>
+          <t>LIT-320</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>LIT Independent Study</t>
+          <t>Literature &amp; Environmental Justice</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="D239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -8651,12 +8651,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>MATH-100</t>
+          <t>LIT-372</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>College Mathematics</t>
+          <t>Masterpieces of Literature</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -8666,12 +8666,12 @@
       </c>
       <c r="D240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F240" s="2" t="inlineStr"/>
@@ -8685,12 +8685,12 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>MATH-101</t>
+          <t>LIT-374</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>Calculus I</t>
+          <t>Seminar on J.R.R. Tolkien</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr">
@@ -8719,12 +8719,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>MATH-101X</t>
+          <t>LIT-391</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>Calculus I</t>
+          <t>Literature Special Topics</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr">
@@ -8753,12 +8753,12 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>MATH-102</t>
+          <t>LIT-397</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>Calculus II</t>
+          <t>Literature Free Elective</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>MATH-101</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr">
@@ -8787,12 +8787,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>MATH-102H</t>
+          <t>LIT-399</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>Calculus II - Honors</t>
+          <t>LIT Independent Study</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>MATH-101</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr">
@@ -8821,12 +8821,12 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>MATH-102X</t>
+          <t>MATH-100</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Calculus II</t>
+          <t>College Mathematics</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>MATH-101 or MATH-101X</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr">
@@ -8855,12 +8855,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>MATH-191</t>
+          <t>MATH-101</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>Mathematics Special Topics</t>
+          <t>Calculus I</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -8889,12 +8889,12 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>MATH-203</t>
+          <t>MATH-101X</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>Multivariate Calculus</t>
+          <t>Calculus I</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>MATH-102 or MATH-102H or MATH-102X</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr">
@@ -8923,12 +8923,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>MATH-203H</t>
+          <t>MATH-102</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>Multivariate Calculus - Honors</t>
+          <t>Calculus II</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>MATH-102H or MATH-102 or MATH-102X</t>
+          <t>MATH-101</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr">
@@ -8957,12 +8957,12 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>MATH-203X</t>
+          <t>MATH-102H</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>Multivariate Calculus</t>
+          <t>Calculus II - Honors</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>MATH-102 or MATH-102H or MATH-102X</t>
+          <t>MATH-101</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr">
@@ -8991,12 +8991,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>MATH-204</t>
+          <t>MATH-102X</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>Differential Equations &amp; Laplace Transforms</t>
+          <t>Calculus II</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>MATH-203 or MATH-203H or MATH-203X</t>
+          <t>MATH-101 or MATH-101X</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr">
         <is>
-          <t>Freshman</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F250" s="2" t="inlineStr"/>
@@ -9025,12 +9025,12 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>MATH-204H</t>
+          <t>MATH-191</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>Differential Equations and Laplace Transforms - Honors</t>
+          <t>Mathematics Special Topics</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>MATH-203 or MATH-203H</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr">
@@ -9059,12 +9059,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>MATH-203</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>Probability and Statistics</t>
+          <t>Multivariate Calculus</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -9074,12 +9074,12 @@
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>MATH-102 or MATH-102X or MATH-102H</t>
+          <t>MATH-102 or MATH-102H or MATH-102X</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr">
         <is>
-          <t>Sophomore 1</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F252" s="2" t="inlineStr"/>
@@ -9093,12 +9093,12 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>MATH-291</t>
+          <t>MATH-203H</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>Mathematics Special Topics</t>
+          <t>Multivariate Calculus - Honors</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-102H or MATH-102 or MATH-102X</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr">
@@ -9127,12 +9127,12 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>MATH-305</t>
+          <t>MATH-203X</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>Numerical Methods and Matrices</t>
+          <t>Multivariate Calculus</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -9142,12 +9142,12 @@
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>MATH-204 or MATH-204H</t>
+          <t>MATH-102 or MATH-102H or MATH-102X</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F254" s="2" t="inlineStr"/>
@@ -9161,27 +9161,27 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>MATH-307</t>
+          <t>MATH-204</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>Matrix Algebra</t>
+          <t>Differential Equations &amp; Laplace Transforms</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>MATH-102</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>MATH-101 or MATH-101X</t>
+          <t>MATH-203 or MATH-203H or MATH-203X</t>
         </is>
       </c>
       <c r="E255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Freshman</t>
         </is>
       </c>
       <c r="F255" s="2" t="inlineStr"/>
@@ -9195,12 +9195,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>MATH-308</t>
+          <t>MATH-204H</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>Abstract Algebra</t>
+          <t>Differential Equations and Laplace Transforms - Honors</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -9210,12 +9210,12 @@
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>(MATH-307) or (CS-211 and MATH-101) or (CS-211 and MATH-101X)</t>
+          <t>MATH-203 or MATH-203H</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F256" s="2" t="inlineStr"/>
@@ -9229,12 +9229,12 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>MATH-313</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>Boundary Value Problems</t>
+          <t>Probability and Statistics</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>MATH-204 or MATH-204H</t>
+          <t>MATH-102 or MATH-102X or MATH-102H</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr">
         <is>
-          <t>Sophomore 2</t>
+          <t>Sophomore 1</t>
         </is>
       </c>
       <c r="F257" s="2" t="inlineStr"/>
@@ -9263,12 +9263,12 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>MATH-321</t>
+          <t>MATH-291</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>Real Analysis I</t>
+          <t>Mathematics Special Topics</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -9278,12 +9278,12 @@
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>MATH-203 or MATH-203H or MATH-203X</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F258" s="2" t="inlineStr"/>
@@ -9297,12 +9297,12 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>MATH-327</t>
+          <t>MATH-305</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>Probability &amp; Stochastic Modeling</t>
+          <t>Numerical Methods and Matrices</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>MATH-203 or MATH-203H or MATH-203X</t>
+          <t>MATH-204 or MATH-204H</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
@@ -9331,27 +9331,27 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>MATH-328</t>
+          <t>MATH-307</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>Methods of Applied Mathematics</t>
+          <t>Matrix Algebra</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-102</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>MATH-204 or MATH-204H</t>
+          <t>MATH-101 or MATH-101X</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F260" s="2" t="inlineStr"/>
@@ -9365,12 +9365,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>MATH-330</t>
+          <t>MATH-308</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>Biostatistics</t>
+          <t>Abstract Algebra</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>MATH-258</t>
+          <t>(MATH-307) or (CS-211 and MATH-101) or (CS-211 and MATH-101X)</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr">
         <is>
-          <t>Sophomore II</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F261" s="2" t="inlineStr"/>
@@ -9399,12 +9399,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>MATH-350</t>
+          <t>MATH-313</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Financial Mathematics</t>
+          <t>Boundary Value Problems</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -9414,12 +9414,12 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>(MATH-102 or MATH-102X or MATH-102H)</t>
+          <t>MATH-204 or MATH-204H</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Sophomore 2</t>
         </is>
       </c>
       <c r="F262" s="2" t="inlineStr"/>
@@ -9433,12 +9433,12 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>MATH-360</t>
+          <t>MATH-321</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>Life Contingencies I</t>
+          <t>Real Analysis I</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>MATH-350</t>
+          <t>MATH-203 or MATH-203H or MATH-203X</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr">
@@ -9467,12 +9467,12 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>MATH-361</t>
+          <t>MATH-327</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>Life Contingencies II</t>
+          <t>Probability &amp; Stochastic Modeling</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -9482,12 +9482,12 @@
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>MATH-360</t>
+          <t>MATH-203 or MATH-203H or MATH-203X</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr">
         <is>
-          <t>Junior 2</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F264" s="2" t="inlineStr"/>
@@ -9501,12 +9501,12 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>MATH-412</t>
+          <t>MATH-328</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>Complex Variables</t>
+          <t>Methods of Applied Mathematics</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -9516,12 +9516,12 @@
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>MATH-203 or MATH-203H or MATH-203X</t>
+          <t>MATH-204 or MATH-204H</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F265" s="2" t="inlineStr"/>
@@ -9535,12 +9535,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>MATH-416</t>
+          <t>MATH-330</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>Vector Analysis</t>
+          <t>Biostatistics</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -9550,12 +9550,12 @@
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>MATH-203 or MATH-203H or MATH-203X</t>
+          <t>MATH-258</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr">
         <is>
-          <t>Sophomore 2</t>
+          <t>Sophomore II</t>
         </is>
       </c>
       <c r="F266" s="2" t="inlineStr"/>
@@ -9569,12 +9569,12 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>MATH-418</t>
+          <t>MATH-350</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>Intermediate Differential Equations</t>
+          <t>Financial Mathematics</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and MATH-305</t>
+          <t>(MATH-102 or MATH-102X or MATH-102H)</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr">
@@ -9603,12 +9603,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>MATH-421</t>
+          <t>MATH-360</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>Real Analysis II</t>
+          <t>Life Contingencies I</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -9618,12 +9618,12 @@
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>MATH-321</t>
+          <t>MATH-350</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr">
         <is>
-          <t>Junior 2</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F268" s="2" t="inlineStr"/>
@@ -9637,12 +9637,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>MATH-423</t>
+          <t>MATH-361</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>Partial Differential Equations</t>
+          <t>Life Contingencies II</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -9652,12 +9652,12 @@
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>MATH-305 and MATH-313</t>
+          <t>MATH-360</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Junior 2</t>
         </is>
       </c>
       <c r="F269" s="2" t="inlineStr"/>
@@ -9671,12 +9671,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>MATH-427</t>
+          <t>MATH-412</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>Statistical Inference &amp;  Modeling</t>
+          <t>Complex Variables</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -9686,12 +9686,12 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>MATH-327</t>
+          <t>MATH-203 or MATH-203H or MATH-203X</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr">
         <is>
-          <t>Sophomore I</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F270" s="2" t="inlineStr"/>
@@ -9705,12 +9705,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>MATH-428</t>
+          <t>MATH-416</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>Sampling Theory</t>
+          <t>Vector Analysis</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -9720,12 +9720,12 @@
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>MATH-327</t>
+          <t>MATH-203 or MATH-203H or MATH-203X</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Sophomore 2</t>
         </is>
       </c>
       <c r="F271" s="2" t="inlineStr"/>
@@ -9739,12 +9739,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>MATH-450</t>
+          <t>MATH-418</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Statistics for Risk Modeling</t>
+          <t>Intermediate Differential Equations</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -9754,12 +9754,12 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>MATH-427</t>
+          <t>(MATH-204 or MATH-204H) and MATH-305</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr">
         <is>
-          <t>Junior I</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F272" s="2" t="inlineStr"/>
@@ -9773,12 +9773,12 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>MECH-111</t>
+          <t>MATH-421</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>Computer Programming for MEs</t>
+          <t>Real Analysis II</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
@@ -9788,12 +9788,12 @@
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-321</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior 2</t>
         </is>
       </c>
       <c r="F273" s="2" t="inlineStr"/>
@@ -9807,27 +9807,27 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>MECH-210</t>
+          <t>MATH-423</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>Statics</t>
+          <t>Partial Differential Equations</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>MATH-102, PHYS-114, PHYS-115</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>MATH-101 or MATH-101X</t>
+          <t>MATH-305 and MATH-313</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F274" s="2" t="inlineStr"/>
@@ -9841,12 +9841,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>MECH-211</t>
+          <t>MATH-427</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>Circuits and Mechatronics</t>
+          <t>Statistical Inference &amp;  Modeling</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>(MECH-111 or CS-100 or CS-101 or ECE-101) and PHYS-224 and PHYS-225</t>
+          <t>MATH-327</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore I</t>
         </is>
       </c>
       <c r="F275" s="2" t="inlineStr"/>
@@ -9875,12 +9875,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>MECH-212</t>
+          <t>MATH-428</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>Mechanics of Materials</t>
+          <t>Sampling Theory</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -9890,12 +9890,12 @@
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>MECH-210</t>
+          <t>MATH-327</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F276" s="2" t="inlineStr"/>
@@ -9909,12 +9909,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>MECH-231L</t>
+          <t>MATH-450</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>Signals for Mechanical Systems Lab</t>
+          <t>Statistics for Risk Modeling</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -9924,12 +9924,12 @@
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>MATH-427</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior I</t>
         </is>
       </c>
       <c r="F277" s="2" t="inlineStr"/>
@@ -9943,12 +9943,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>MECH-300</t>
+          <t>MECH-111</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>Computer Aided Engineering</t>
+          <t>Computer Programming for MEs</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>IME-100 and MECH-212</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr">
@@ -9977,22 +9977,22 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>MECH-307</t>
+          <t>MECH-210</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>Materials Engineering</t>
+          <t>Statics</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-102, PHYS-114, PHYS-115</t>
         </is>
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>(CHEM-135 or CHEM-137) and CHEM-136</t>
+          <t>MATH-101 or MATH-101X</t>
         </is>
       </c>
       <c r="E279" s="2" t="inlineStr">
@@ -10011,12 +10011,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>MECH-310</t>
+          <t>MECH-211</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>Dynamics</t>
+          <t>Circuits and Mechatronics</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>MECH-210 and PHYS-114 and PHYS-115 and (MATH-102 or MATH-102X or MATH-102H)</t>
+          <t>(MECH-111 or CS-100 or CS-101 or ECE-101) and PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr">
@@ -10045,12 +10045,12 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>MECH-311</t>
+          <t>MECH-212</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>Mechatronics Systems Design</t>
+          <t>Mechanics of Materials</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>MECH-211 and PHYS-224 and PHYS-225</t>
+          <t>MECH-210</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr">
@@ -10079,12 +10079,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>MECH-312</t>
+          <t>MECH-231L</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>Mechanical Component Design I</t>
+          <t>Signals for Mechanical Systems Lab</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>MECH-212</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E282" s="2" t="inlineStr">
@@ -10113,12 +10113,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>MECH-320</t>
+          <t>MECH-300</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>Thermodynamics</t>
+          <t>Computer Aided Engineering</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="D283" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>IME-100 and MECH-212</t>
         </is>
       </c>
       <c r="E283" s="2" t="inlineStr">
@@ -10147,12 +10147,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>MECH-322</t>
+          <t>MECH-307</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>Fluid Mechanics</t>
+          <t>Materials Engineering</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D284" s="2" t="inlineStr">
         <is>
-          <t>MECH-320</t>
+          <t>(CHEM-135 or CHEM-137) and CHEM-136</t>
         </is>
       </c>
       <c r="E284" s="2" t="inlineStr">
@@ -10181,22 +10181,22 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>MECH-330</t>
+          <t>MECH-310</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>Dynamic Systems with Vibrations</t>
+          <t>Dynamics</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>MECH-331</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D285" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and MECH-310</t>
+          <t>MECH-210 and PHYS-114 and PHYS-115 and (MATH-102 or MATH-102X or MATH-102H)</t>
         </is>
       </c>
       <c r="E285" s="2" t="inlineStr">
@@ -10215,22 +10215,22 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>MECH-331</t>
+          <t>MECH-311</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Dynamic Sys w Vibrations Lab</t>
+          <t>Mechatronics Systems Design</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>MECH-330</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D286" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and MECH-310</t>
+          <t>MECH-211 and PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E286" s="2" t="inlineStr">
@@ -10249,12 +10249,12 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>MECH-350</t>
+          <t>MECH-312</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Bioengineering Applications</t>
+          <t>Mechanical Component Design I</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="D287" s="2" t="inlineStr">
         <is>
-          <t>MECH-210</t>
+          <t>MECH-212</t>
         </is>
       </c>
       <c r="E287" s="2" t="inlineStr">
@@ -10283,12 +10283,12 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>MECH-397</t>
+          <t>MECH-320</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>MECH Free Elective</t>
+          <t>Thermodynamics</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="D288" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E288" s="2" t="inlineStr">
@@ -10317,12 +10317,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>MECH-412</t>
+          <t>MECH-322</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>Mechanical Component Design II</t>
+          <t>Fluid Mechanics</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="D289" s="2" t="inlineStr">
         <is>
-          <t>MECH-307 and MECH-312</t>
+          <t>MECH-320</t>
         </is>
       </c>
       <c r="E289" s="2" t="inlineStr">
@@ -10351,27 +10351,27 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>MECH-415</t>
+          <t>MECH-330</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>Engineering Optimization</t>
+          <t>Dynamic Systems with Vibrations</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-331</t>
         </is>
       </c>
       <c r="D290" s="2" t="inlineStr">
         <is>
-          <t>MATH-204 and (MATH-305 or MATH-307)</t>
+          <t>(MATH-204 or MATH-204H) and MECH-310</t>
         </is>
       </c>
       <c r="E290" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F290" s="2" t="inlineStr"/>
@@ -10385,22 +10385,22 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>MECH-416</t>
+          <t>MECH-331</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Finite Element Analysis with Structural Applications</t>
+          <t>Dynamic Sys w Vibrations Lab</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-330</t>
         </is>
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(MATH-204 or MATH-204H) and MECH-310</t>
         </is>
       </c>
       <c r="E291" s="2" t="inlineStr">
@@ -10419,12 +10419,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>MECH-420</t>
+          <t>MECH-350</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>Heat Transfer</t>
+          <t>Introduction to Bioengineering Applications</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>MECH-320 and MECH-322</t>
+          <t>MECH-210</t>
         </is>
       </c>
       <c r="E292" s="2" t="inlineStr">
@@ -10453,27 +10453,27 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>MECH-421</t>
+          <t>MECH-397</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>Energy and Environmental System Design</t>
+          <t>MECH Free Elective</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>MECH-422</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>MECH-300 and MECH-307 and MECH-312 and MECH-420</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E293" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F293" s="2" t="inlineStr"/>
@@ -10487,22 +10487,22 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>MECH-422</t>
+          <t>MECH-412</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>Energy Systems Laboratory</t>
+          <t>Mechanical Component Design II</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>MECH-420</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>MECH-320 and MECH-322</t>
+          <t>MECH-307 and MECH-312</t>
         </is>
       </c>
       <c r="E294" s="2" t="inlineStr">
@@ -10521,12 +10521,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>MECH-426</t>
+          <t>MECH-415</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>Fuel Cell Science and Engineering</t>
+          <t>Engineering Optimization</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="D295" s="2" t="inlineStr">
         <is>
-          <t>CHEM-135 and CHEM-136 and MECH-322</t>
+          <t>MATH-204 and (MATH-305 or MATH-307)</t>
         </is>
       </c>
       <c r="E295" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F295" s="2" t="inlineStr"/>
@@ -10555,12 +10555,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>MECH-427</t>
+          <t>MECH-416</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>Energy and the Environment</t>
+          <t>Introduction to Finite Element Analysis with Structural Applications</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -10589,12 +10589,12 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>MECH-428</t>
+          <t>MECH-420</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>Bio and Renewable Energy</t>
+          <t>Heat Transfer</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="D297" s="2" t="inlineStr">
         <is>
-          <t>PHYS-114 and PHYS-115</t>
+          <t>MECH-320 and MECH-322</t>
         </is>
       </c>
       <c r="E297" s="2" t="inlineStr">
@@ -10623,27 +10623,27 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>MECH-430</t>
+          <t>MECH-421</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>Dynamic Systems with Controls</t>
+          <t>Energy and Environmental System Design</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>MECH-431</t>
+          <t>MECH-422</t>
         </is>
       </c>
       <c r="D298" s="2" t="inlineStr">
         <is>
-          <t>MECH-330 and MECH-331 and MATH-305</t>
+          <t>MECH-300 and MECH-307 and MECH-312 and MECH-420</t>
         </is>
       </c>
       <c r="E298" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F298" s="2" t="inlineStr"/>
@@ -10657,22 +10657,22 @@
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>MECH-431</t>
+          <t>MECH-422</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>Dynamic Systems with Controls Lab</t>
+          <t>Energy Systems Laboratory</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>MECH-430</t>
+          <t>MECH-420</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t>MECH-330 and MECH-331 and MATH-305</t>
+          <t>MECH-320 and MECH-322</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr">
@@ -10691,12 +10691,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>MECH-440</t>
+          <t>MECH-426</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to Internal Combustion Engines  </t>
+          <t>Fuel Cell Science and Engineering</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="D300" s="2" t="inlineStr">
         <is>
-          <t>MECH-320</t>
+          <t>CHEM-135 and CHEM-136 and MECH-322</t>
         </is>
       </c>
       <c r="E300" s="2" t="inlineStr">
@@ -10725,12 +10725,12 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>MECH-441</t>
+          <t>MECH-427</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>Advanced Automotive Power Systems</t>
+          <t>Energy and the Environment</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="D301" s="2" t="inlineStr">
         <is>
-          <t>MECH-320</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E301" s="2" t="inlineStr">
@@ -10759,12 +10759,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>MECH-442</t>
+          <t>MECH-428</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>Chassis Systems</t>
+          <t>Bio and Renewable Energy</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="D302" s="2" t="inlineStr">
         <is>
-          <t>MECH-330</t>
+          <t>PHYS-114 and PHYS-115</t>
         </is>
       </c>
       <c r="E302" s="2" t="inlineStr">
@@ -10793,22 +10793,22 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>MECH-444</t>
+          <t>MECH-430</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Automotive Powertrains</t>
+          <t>Dynamic Systems with Controls</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>MECH-311</t>
+          <t>MECH-431</t>
         </is>
       </c>
       <c r="D303" s="2" t="inlineStr">
         <is>
-          <t>MECH-212</t>
+          <t>MECH-330 and MECH-331 and MATH-305</t>
         </is>
       </c>
       <c r="E303" s="2" t="inlineStr">
@@ -10827,22 +10827,22 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>MECH-445</t>
+          <t>MECH-431</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>Hybrid Electric Vehicle Propulsion</t>
+          <t>Dynamic Systems with Controls Lab</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>MECH-430, MECH-431</t>
+          <t>MECH-430</t>
         </is>
       </c>
       <c r="D304" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-330 and MECH-331 and MATH-305</t>
         </is>
       </c>
       <c r="E304" s="2" t="inlineStr">
@@ -10861,12 +10861,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>MECH-446</t>
+          <t>MECH-440</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>Vehicle Systems Dynamics</t>
+          <t xml:space="preserve">Introduction to Internal Combustion Engines  </t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="D305" s="2" t="inlineStr">
         <is>
-          <t>MECH-330</t>
+          <t>MECH-320</t>
         </is>
       </c>
       <c r="E305" s="2" t="inlineStr">
@@ -10895,12 +10895,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>MECH-448</t>
+          <t>MECH-441</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>Vehicle Design Project</t>
+          <t>Advanced Automotive Power Systems</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
@@ -10910,12 +10910,12 @@
       </c>
       <c r="D306" s="2" t="inlineStr">
         <is>
-          <t>MECH-493</t>
+          <t>MECH-320</t>
         </is>
       </c>
       <c r="E306" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F306" s="2" t="inlineStr"/>
@@ -10929,12 +10929,12 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>MECH-450</t>
+          <t>MECH-442</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>Automotive Bioengineering: Occupant Protection and Safety</t>
+          <t>Chassis Systems</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="D307" s="2" t="inlineStr">
         <is>
-          <t>MECH-310</t>
+          <t>MECH-330</t>
         </is>
       </c>
       <c r="E307" s="2" t="inlineStr">
@@ -10963,22 +10963,22 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>MECH-451</t>
+          <t>MECH-444</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>Vehicular Crash Dynamics and Accident Reconstruction</t>
+          <t>Introduction to Automotive Powertrains</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-311</t>
         </is>
       </c>
       <c r="D308" s="2" t="inlineStr">
         <is>
-          <t>MECH-310</t>
+          <t>MECH-212</t>
         </is>
       </c>
       <c r="E308" s="2" t="inlineStr">
@@ -10997,22 +10997,22 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>MECH-482</t>
+          <t>MECH-445</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>Mechanics and Design Simulation of Fiber-Reinforced Composite Materials</t>
+          <t>Hybrid Electric Vehicle Propulsion</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-430, MECH-431</t>
         </is>
       </c>
       <c r="D309" s="2" t="inlineStr">
         <is>
-          <t>MECH-300</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E309" s="2" t="inlineStr">
@@ -11031,22 +11031,22 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>MECH-490</t>
+          <t>MECH-446</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>Fluid Power Systems</t>
+          <t>Vehicle Systems Dynamics</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>MECH-312</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D310" s="2" t="inlineStr">
         <is>
-          <t>MECH-300</t>
+          <t>MECH-330</t>
         </is>
       </c>
       <c r="E310" s="2" t="inlineStr">
@@ -11065,27 +11065,27 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
+          <t>MECH-448</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle Design Project</t>
+        </is>
+      </c>
+      <c r="C311" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="inlineStr">
+        <is>
           <t>MECH-493</t>
         </is>
       </c>
-      <c r="B311" s="2" t="inlineStr">
-        <is>
-          <t>Senior Design 1</t>
-        </is>
-      </c>
-      <c r="C311" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D311" s="2" t="inlineStr">
-        <is>
-          <t>MECH-300 and MECH-310 and MECH-312 and MECH-322</t>
-        </is>
-      </c>
       <c r="E311" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F311" s="2" t="inlineStr"/>
@@ -11099,12 +11099,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>MECH-495</t>
+          <t>MECH-450</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Senior Design Project</t>
+          <t>Automotive Bioengineering: Occupant Protection and Safety</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -11114,12 +11114,12 @@
       </c>
       <c r="D312" s="2" t="inlineStr">
         <is>
-          <t>MECH-493</t>
+          <t>MECH-310</t>
         </is>
       </c>
       <c r="E312" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F312" s="2" t="inlineStr"/>
@@ -11133,12 +11133,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>MECH-498</t>
+          <t>MECH-451</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>Mechanical Eng Study Abroad</t>
+          <t>Vehicular Crash Dynamics and Accident Reconstruction</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="D313" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-310</t>
         </is>
       </c>
       <c r="E313" s="2" t="inlineStr">
@@ -11167,22 +11167,22 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>MECH-510</t>
+          <t>MECH-482</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>Analysis and Design of Machines and Mechanical Assemblies</t>
+          <t>Mechanics and Design Simulation of Fiber-Reinforced Composite Materials</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>MECH-330</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D314" s="2" t="inlineStr">
         <is>
-          <t>MECH-300 and MECH-310 and MECH-312</t>
+          <t>MECH-300</t>
         </is>
       </c>
       <c r="E314" s="2" t="inlineStr">
@@ -11201,22 +11201,22 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>MECH-515</t>
+          <t>MECH-490</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>Failure and Material Considerations in Design</t>
+          <t>Fluid Power Systems</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>MECH-412</t>
+          <t>MECH-312</t>
         </is>
       </c>
       <c r="D315" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-300</t>
         </is>
       </c>
       <c r="E315" s="2" t="inlineStr">
@@ -11235,12 +11235,12 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>MECH-523</t>
+          <t>MECH-493</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>Applied Computational Fluid Dynamics</t>
+          <t>Senior Design 1</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="D316" s="2" t="inlineStr">
         <is>
-          <t>MECH-322 and (MATH-313 or MATH-418 or MATH-423)</t>
+          <t>MECH-300 and MECH-310 and MECH-312 and MECH-322</t>
         </is>
       </c>
       <c r="E316" s="2" t="inlineStr">
@@ -11269,12 +11269,12 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>MECH-525</t>
+          <t>MECH-495</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Multiphysics Modeling and Simulation in Fluid Mechanics and Heat Transfer</t>
+          <t>Senior Design Project</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="D317" s="2" t="inlineStr">
         <is>
-          <t>MECH-322 and MECH-420</t>
+          <t>MECH-493</t>
         </is>
       </c>
       <c r="E317" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F317" s="2" t="inlineStr"/>
@@ -11303,12 +11303,12 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>MECH-562</t>
+          <t>MECH-498</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>Compressible Flow/Gas Dynamics</t>
+          <t>Mechanical Eng Study Abroad</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="D318" s="2" t="inlineStr">
         <is>
-          <t>MECH-322</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E318" s="2" t="inlineStr">
@@ -11337,22 +11337,22 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>MECH-564</t>
+          <t>MECH-510</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>Aerodynamics and Wing Theory</t>
+          <t>Analysis and Design of Machines and Mechanical Assemblies</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-330</t>
         </is>
       </c>
       <c r="D319" s="2" t="inlineStr">
         <is>
-          <t>MECH-322 and (MATH-305 or MECH-600)</t>
+          <t>MECH-300 and MECH-310 and MECH-312</t>
         </is>
       </c>
       <c r="E319" s="2" t="inlineStr">
@@ -11371,17 +11371,17 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>MECH-595</t>
+          <t>MECH-515</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>Automotive Seminar I</t>
+          <t>Failure and Material Considerations in Design</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-412</t>
         </is>
       </c>
       <c r="D320" s="2" t="inlineStr">
@@ -11405,12 +11405,12 @@
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>MECH-596</t>
+          <t>MECH-523</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>Automotive Seminar II</t>
+          <t>Applied Computational Fluid Dynamics</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
@@ -11420,7 +11420,7 @@
       </c>
       <c r="D321" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-322 and (MATH-313 or MATH-418 or MATH-423)</t>
         </is>
       </c>
       <c r="E321" s="2" t="inlineStr">
@@ -11439,12 +11439,12 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>MEDI-100</t>
+          <t>MECH-525</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>Integrated Medical Terminology and Practice</t>
+          <t>Introduction to Multiphysics Modeling and Simulation in Fluid Mechanics and Heat Transfer</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="D322" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-322 and MECH-420</t>
         </is>
       </c>
       <c r="E322" s="2" t="inlineStr">
@@ -11473,12 +11473,12 @@
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>MGMT-101</t>
+          <t>MECH-562</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Applied Management</t>
+          <t>Compressible Flow/Gas Dynamics</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="D323" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-322</t>
         </is>
       </c>
       <c r="E323" s="2" t="inlineStr">
@@ -11507,12 +11507,12 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>MGMT-104</t>
+          <t>MECH-564</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Management Concepts</t>
+          <t>Aerodynamics and Wing Theory</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="D324" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MECH-322 and (MATH-305 or MECH-600)</t>
         </is>
       </c>
       <c r="E324" s="2" t="inlineStr">
@@ -11541,12 +11541,12 @@
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>MGMT-205</t>
+          <t>MECH-595</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>Organizational Behavior</t>
+          <t>Automotive Seminar I</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="D325" s="2" t="inlineStr">
         <is>
-          <t>MGMT-104</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E325" s="2" t="inlineStr">
@@ -11575,12 +11575,12 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>MGMT-313</t>
+          <t>MECH-596</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Marketing Research</t>
+          <t>Automotive Seminar II</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t>BUSN-271 or MATH-258</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr">
@@ -11609,12 +11609,12 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>MGMT-314</t>
+          <t>MEDI-100</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>Financial Statement Analysis</t>
+          <t>Integrated Medical Terminology and Practice</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
@@ -11624,7 +11624,7 @@
       </c>
       <c r="D327" s="2" t="inlineStr">
         <is>
-          <t>BUSN-331</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E327" s="2" t="inlineStr">
@@ -11643,12 +11643,12 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>MGMT-315</t>
+          <t>MGMT-101</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>Operations and Supply Chain Management</t>
+          <t>Introduction to Applied Management</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="D328" s="2" t="inlineStr">
         <is>
-          <t>BUSN-221 and BUSN-312</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E328" s="2" t="inlineStr">
@@ -11677,12 +11677,12 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>MGMT-333</t>
+          <t>MGMT-104</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>Competency in Professional Management</t>
+          <t>Management Concepts</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="E329" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F329" s="2" t="inlineStr"/>
@@ -11711,12 +11711,12 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>MGMT-391</t>
+          <t>MGMT-205</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>Management Special Topics</t>
+          <t>Organizational Behavior</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="D330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MGMT-104</t>
         </is>
       </c>
       <c r="E330" s="2" t="inlineStr">
@@ -11745,12 +11745,12 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>MGMT-419</t>
+          <t>MGMT-313</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Marketing Research</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
@@ -11760,12 +11760,12 @@
       </c>
       <c r="D331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BUSN-271 or MATH-258</t>
         </is>
       </c>
       <c r="E331" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F331" s="2" t="inlineStr"/>
@@ -11779,12 +11779,12 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>MGMT-423</t>
+          <t>MGMT-314</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Financial Statement Analysis</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
@@ -11794,12 +11794,12 @@
       </c>
       <c r="D332" s="2" t="inlineStr">
         <is>
-          <t>(BUSN-271 or MATH-258) and (CS-101 or IME-211)</t>
+          <t>BUSN-331</t>
         </is>
       </c>
       <c r="E332" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F332" s="2" t="inlineStr"/>
@@ -11813,12 +11813,12 @@
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>MGMT-424</t>
+          <t>MGMT-315</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>Data Visualization</t>
+          <t>Operations and Supply Chain Management</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="D333" s="2" t="inlineStr">
         <is>
-          <t>(CS-101 or IME-211) and (BUSN-271 or MATH-258)</t>
+          <t>BUSN-221 and BUSN-312</t>
         </is>
       </c>
       <c r="E333" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F333" s="2" t="inlineStr"/>
@@ -11847,12 +11847,12 @@
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>MGMT-425</t>
+          <t>MGMT-333</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>Digital Strategy and Competitive Advantage</t>
+          <t>Competency in Professional Management</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="E334" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F334" s="2" t="inlineStr"/>
@@ -11881,12 +11881,12 @@
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>MGMT-465</t>
+          <t>MGMT-391</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>Strategic Management</t>
+          <t>Management Special Topics</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="E335" s="2" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F335" s="2" t="inlineStr"/>
@@ -11915,12 +11915,12 @@
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>MGMT-479</t>
+          <t>MGMT-419</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
@@ -11930,12 +11930,12 @@
       </c>
       <c r="D336" s="2" t="inlineStr">
         <is>
-          <t>MGMT-205</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E336" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F336" s="2" t="inlineStr"/>
@@ -11949,12 +11949,12 @@
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>MGMT-484</t>
+          <t>MGMT-423</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>Business Consulting Project</t>
+          <t>Data Analytics</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
@@ -11964,7 +11964,7 @@
       </c>
       <c r="D337" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(BUSN-271 or MATH-258) and (CS-101 or IME-211)</t>
         </is>
       </c>
       <c r="E337" s="2" t="inlineStr">
@@ -11983,12 +11983,12 @@
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>MGMT-510</t>
+          <t>MGMT-424</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>Foundations of Business</t>
+          <t>Data Visualization</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
@@ -11998,12 +11998,12 @@
       </c>
       <c r="D338" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(CS-101 or IME-211) and (BUSN-271 or MATH-258)</t>
         </is>
       </c>
       <c r="E338" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F338" s="2" t="inlineStr"/>
@@ -12017,12 +12017,12 @@
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>MGMT-521</t>
+          <t>MGMT-425</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>Statistical and Quantitative Methods for Managerial Decision</t>
+          <t>Digital Strategy and Competitive Advantage</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
@@ -12037,7 +12037,7 @@
       </c>
       <c r="E339" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F339" s="2" t="inlineStr"/>
@@ -12051,12 +12051,12 @@
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>MGMT-550</t>
+          <t>MGMT-465</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>Mgmt Concepts and Applications</t>
+          <t>Strategic Management</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="E340" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F340" s="2" t="inlineStr"/>
@@ -12085,12 +12085,12 @@
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>PHIL-374</t>
+          <t>MGMT-479</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>Environmental Philosophy</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
@@ -12100,7 +12100,7 @@
       </c>
       <c r="D341" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>MGMT-205</t>
         </is>
       </c>
       <c r="E341" s="2" t="inlineStr">
@@ -12119,12 +12119,12 @@
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>PHIL-378</t>
+          <t>MGMT-484</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>Moral and Ethical Philosophy</t>
+          <t>Business Consulting Project</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
@@ -12134,12 +12134,12 @@
       </c>
       <c r="D342" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E342" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="F342" s="2" t="inlineStr"/>
@@ -12153,12 +12153,12 @@
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>PHIL-391</t>
+          <t>MGMT-510</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>Philosophy Special Topics</t>
+          <t>Foundations of Business</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="D343" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E343" s="2" t="inlineStr">
@@ -12187,22 +12187,22 @@
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>PHYS-114</t>
+          <t>MGMT-521</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>Newtonian Mechanics</t>
+          <t>Statistical and Quantitative Methods for Managerial Decision</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>MATH-102, PHYS-115</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D344" s="2" t="inlineStr">
         <is>
-          <t>MATH-101 or MATH-101X</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E344" s="2" t="inlineStr">
@@ -12221,22 +12221,22 @@
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>PHYS-115</t>
+          <t>MGMT-550</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>Newtonian Mechanics Laboratory</t>
+          <t>Mgmt Concepts and Applications</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>COMM-101, MATH-102, PHYS-114</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D345" s="2" t="inlineStr">
         <is>
-          <t>MATH-101 or MATH-101X</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E345" s="2" t="inlineStr">
@@ -12255,22 +12255,22 @@
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224</t>
+          <t>PHIL-374</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>Electricity and Magnetism</t>
+          <t>Environmental Philosophy</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>MATH-203, PHYS-225</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D346" s="2" t="inlineStr">
         <is>
-          <t>PHYS-114 and PHYS-115 and (MATH-102 or MATH-102X or MATH-102H)</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E346" s="2" t="inlineStr">
@@ -12289,27 +12289,27 @@
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>PHYS-225</t>
+          <t>PHIL-378</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>Electricity and Magnetism Laboratory</t>
+          <t>Moral and Ethical Philosophy</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
         <is>
-          <t>MATH-203, PHYS-224</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D347" s="2" t="inlineStr">
         <is>
-          <t>PHYS-114 and PHYS-115 and (MATH-102 or MATH-102X or MATH-102H)</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E347" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F347" s="2" t="inlineStr"/>
@@ -12323,27 +12323,27 @@
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>PHYS-302</t>
+          <t>PHIL-391</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>Vibration, Sound and Light</t>
+          <t>Philosophy Special Topics</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
         <is>
-          <t>MATH-204</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D348" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225 and (MATH-203 or MATH-203H or MATH-203X)</t>
+          <t>LA-201 or LS-201</t>
         </is>
       </c>
       <c r="E348" s="2" t="inlineStr">
         <is>
-          <t>Sophomore 2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F348" s="2" t="inlineStr"/>
@@ -12357,22 +12357,22 @@
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>PHYS-304</t>
+          <t>PHYS-114</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>The Science of Sensors</t>
+          <t>Newtonian Mechanics</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-102, PHYS-115</t>
         </is>
       </c>
       <c r="D349" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>MATH-101 or MATH-101X</t>
         </is>
       </c>
       <c r="E349" s="2" t="inlineStr">
@@ -12391,27 +12391,27 @@
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>PHYS-354</t>
+          <t>PHYS-115</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>Medical Physics Principles</t>
+          <t>Newtonian Mechanics Laboratory</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>COMM-101, MATH-102, PHYS-114</t>
         </is>
       </c>
       <c r="D350" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>MATH-101 or MATH-101X</t>
         </is>
       </c>
       <c r="E350" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F350" s="2" t="inlineStr"/>
@@ -12425,27 +12425,27 @@
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>PHYS-362</t>
+          <t>PHYS-224</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>Modern Physics and Lab</t>
+          <t>Electricity and Magnetism</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t>MATH-204</t>
+          <t>MATH-203, PHYS-225</t>
         </is>
       </c>
       <c r="D351" s="2" t="inlineStr">
         <is>
-          <t>PHYS-224 and PHYS-225</t>
+          <t>PHYS-114 and PHYS-115 and (MATH-102 or MATH-102X or MATH-102H)</t>
         </is>
       </c>
       <c r="E351" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F351" s="2" t="inlineStr"/>
@@ -12459,27 +12459,27 @@
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>PHYS-376</t>
+          <t>PHYS-225</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>Photonics and Optoelectronics</t>
+          <t>Electricity and Magnetism Laboratory</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-203, PHYS-224</t>
         </is>
       </c>
       <c r="D352" s="2" t="inlineStr">
         <is>
-          <t>(MATH-203 or MATH-203H or MATH-203X) and PHYS-224 and PHYS-225</t>
+          <t>PHYS-114 and PHYS-115 and (MATH-102 or MATH-102X or MATH-102H)</t>
         </is>
       </c>
       <c r="E352" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F352" s="2" t="inlineStr"/>
@@ -12493,27 +12493,27 @@
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>PHYS-378</t>
+          <t>PHYS-302</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Spectroscopy and Microscopy</t>
+          <t>Vibration, Sound and Light</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-204</t>
         </is>
       </c>
       <c r="D353" s="2" t="inlineStr">
         <is>
-          <t>PHYS-362</t>
+          <t>PHYS-224 and PHYS-225 and (MATH-203 or MATH-203H or MATH-203X)</t>
         </is>
       </c>
       <c r="E353" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Sophomore 2</t>
         </is>
       </c>
       <c r="F353" s="2" t="inlineStr"/>
@@ -12527,12 +12527,12 @@
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>PHYS-388</t>
+          <t>PHYS-304</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>Acoustics in the Human Environment</t>
+          <t>The Science of Sensors</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="E354" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F354" s="2" t="inlineStr"/>
@@ -12561,12 +12561,12 @@
     <row r="355">
       <c r="A355" s="2" t="inlineStr">
         <is>
-          <t>PHYS-412</t>
+          <t>PHYS-354</t>
         </is>
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>Theoretical Mechanics</t>
+          <t>Medical Physics Principles</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="D355" s="2" t="inlineStr">
         <is>
-          <t>PHYS-114 and (MATH-204 or MATH-204H) and (EP-235 or MATH-305)</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E355" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F355" s="2" t="inlineStr"/>
@@ -12595,12 +12595,12 @@
     <row r="356">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>PHYS-452</t>
+          <t>PHYS-362</t>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>Thermodynamics and Statistical Physics</t>
+          <t>Modern Physics and Lab</t>
         </is>
       </c>
       <c r="C356" s="2" t="inlineStr">
@@ -12610,12 +12610,12 @@
       </c>
       <c r="D356" s="2" t="inlineStr">
         <is>
-          <t>(MATH-203 or MATH-203H or MATH-203X) and PHYS-224 and PHYS-225 and PHYS-362</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E356" s="2" t="inlineStr">
         <is>
-          <t>Sophomore 2</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F356" s="2" t="inlineStr"/>
@@ -12629,12 +12629,12 @@
     <row r="357">
       <c r="A357" s="2" t="inlineStr">
         <is>
-          <t>PHYS-462</t>
+          <t>PHYS-376</t>
         </is>
       </c>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>Quantum Mechanics</t>
+          <t>Photonics and Optoelectronics</t>
         </is>
       </c>
       <c r="C357" s="2" t="inlineStr">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="D357" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and (MATH-305 or MATH-307) and PHYS-362</t>
+          <t>(MATH-203 or MATH-203H or MATH-203X) and PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E357" s="2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F357" s="2" t="inlineStr"/>
@@ -12663,12 +12663,12 @@
     <row r="358">
       <c r="A358" s="2" t="inlineStr">
         <is>
-          <t>PHYS-477</t>
+          <t>PHYS-378</t>
         </is>
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>Optics and Lab</t>
+          <t>Spectroscopy and Microscopy</t>
         </is>
       </c>
       <c r="C358" s="2" t="inlineStr">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="D358" s="2" t="inlineStr">
         <is>
-          <t>(MATH-204 or MATH-204H) and PHYS-302</t>
+          <t>PHYS-362</t>
         </is>
       </c>
       <c r="E358" s="2" t="inlineStr">
@@ -12697,12 +12697,12 @@
     <row r="359">
       <c r="A359" s="2" t="inlineStr">
         <is>
-          <t>PSYC-350</t>
+          <t>PHYS-388</t>
         </is>
       </c>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>Cognitive Psychology</t>
+          <t>Acoustics in the Human Environment</t>
         </is>
       </c>
       <c r="C359" s="2" t="inlineStr">
@@ -12712,12 +12712,12 @@
       </c>
       <c r="D359" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>PHYS-224 and PHYS-225</t>
         </is>
       </c>
       <c r="E359" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F359" s="2" t="inlineStr"/>
@@ -12731,12 +12731,12 @@
     <row r="360">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>SSCI-310</t>
+          <t>PHYS-412</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>The Flint Water Crisis</t>
+          <t>Theoretical Mechanics</t>
         </is>
       </c>
       <c r="C360" s="2" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="D360" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>PHYS-114 and (MATH-204 or MATH-204H) and (EP-235 or MATH-305)</t>
         </is>
       </c>
       <c r="E360" s="2" t="inlineStr">
@@ -12765,27 +12765,27 @@
     <row r="361">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>SSCI-314</t>
+          <t>PHYS-452</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>Technology and Sustainable Development</t>
+          <t>Thermodynamics and Statistical Physics</t>
         </is>
       </c>
       <c r="C361" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MATH-204</t>
         </is>
       </c>
       <c r="D361" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>(MATH-203 or MATH-203H or MATH-203X) and PHYS-224 and PHYS-225 and PHYS-362</t>
         </is>
       </c>
       <c r="E361" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>Sophomore 2</t>
         </is>
       </c>
       <c r="F361" s="2" t="inlineStr"/>
@@ -12799,12 +12799,12 @@
     <row r="362">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>SSCI-391</t>
+          <t>PHYS-462</t>
         </is>
       </c>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>Social Science Special Topics</t>
+          <t>Quantum Mechanics</t>
         </is>
       </c>
       <c r="C362" s="2" t="inlineStr">
@@ -12814,12 +12814,12 @@
       </c>
       <c r="D362" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>(MATH-204 or MATH-204H) and (MATH-305 or MATH-307) and PHYS-362</t>
         </is>
       </c>
       <c r="E362" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F362" s="2" t="inlineStr"/>
@@ -12833,12 +12833,12 @@
     <row r="363">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>SSCI-398</t>
+          <t>PHYS-477</t>
         </is>
       </c>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>Social Science Study Abroad Advanced Topics</t>
+          <t>Optics and Lab</t>
         </is>
       </c>
       <c r="C363" s="2" t="inlineStr">
@@ -12848,12 +12848,12 @@
       </c>
       <c r="D363" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(MATH-204 or MATH-204H) and PHYS-302</t>
         </is>
       </c>
       <c r="E363" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F363" s="2" t="inlineStr"/>
@@ -12867,12 +12867,12 @@
     <row r="364">
       <c r="A364" s="2" t="inlineStr">
         <is>
-          <t>SSCI-499</t>
+          <t>PSYC-350</t>
         </is>
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>Social Science Independent Study</t>
+          <t>Cognitive Psychology</t>
         </is>
       </c>
       <c r="C364" s="2" t="inlineStr">
@@ -12901,12 +12901,12 @@
     <row r="365">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>SOC-331</t>
+          <t>SSCI-310</t>
         </is>
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>Globalization in India and China: Comparative and Cross-Cultural Perspectives</t>
+          <t>The Flint Water Crisis</t>
         </is>
       </c>
       <c r="C365" s="2" t="inlineStr">
@@ -12935,12 +12935,12 @@
     <row r="366">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>SOC-333</t>
+          <t>SSCI-314</t>
         </is>
       </c>
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>Global Social Movements</t>
+          <t>Technology and Sustainable Development</t>
         </is>
       </c>
       <c r="C366" s="2" t="inlineStr">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="E366" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sophomore</t>
         </is>
       </c>
       <c r="F366" s="2" t="inlineStr"/>
@@ -12969,12 +12969,12 @@
     <row r="367">
       <c r="A367" s="2" t="inlineStr">
         <is>
-          <t>SOC-337</t>
+          <t>SSCI-391</t>
         </is>
       </c>
       <c r="B367" s="2" t="inlineStr">
         <is>
-          <t>Religion in Society</t>
+          <t>Social Science Special Topics</t>
         </is>
       </c>
       <c r="C367" s="2" t="inlineStr">
@@ -12989,7 +12989,7 @@
       </c>
       <c r="E367" s="2" t="inlineStr">
         <is>
-          <t>Sophomore</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F367" s="2" t="inlineStr"/>
@@ -13003,12 +13003,12 @@
     <row r="368">
       <c r="A368" s="2" t="inlineStr">
         <is>
-          <t>SOC-341</t>
+          <t>SSCI-398</t>
         </is>
       </c>
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>Law, Politics, and Society</t>
+          <t>Social Science Study Abroad Advanced Topics</t>
         </is>
       </c>
       <c r="C368" s="2" t="inlineStr">
@@ -13018,7 +13018,7 @@
       </c>
       <c r="D368" s="2" t="inlineStr">
         <is>
-          <t>LA-201 or LS-201</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E368" s="2" t="inlineStr">
@@ -13037,12 +13037,12 @@
     <row r="369">
       <c r="A369" s="2" t="inlineStr">
         <is>
-          <t>SOC-391</t>
+          <t>SSCI-499</t>
         </is>
       </c>
       <c r="B369" s="2" t="inlineStr">
         <is>
-          <t>Sociology Special Topics</t>
+          <t>Social Science Independent Study</t>
         </is>
       </c>
       <c r="C369" s="2" t="inlineStr">
@@ -13068,6 +13068,176 @@
       <c r="K369" s="2" t="inlineStr"/>
       <c r="L369" s="2" t="inlineStr"/>
     </row>
+    <row r="370">
+      <c r="A370" s="2" t="inlineStr">
+        <is>
+          <t>SOC-331</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="inlineStr">
+        <is>
+          <t>Globalization in India and China: Comparative and Cross-Cultural Perspectives</t>
+        </is>
+      </c>
+      <c r="C370" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="inlineStr">
+        <is>
+          <t>LA-201 or LS-201</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F370" s="2" t="inlineStr"/>
+      <c r="G370" s="2" t="inlineStr"/>
+      <c r="H370" s="2" t="inlineStr"/>
+      <c r="I370" s="2" t="inlineStr"/>
+      <c r="J370" s="2" t="inlineStr"/>
+      <c r="K370" s="2" t="inlineStr"/>
+      <c r="L370" s="2" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="inlineStr">
+        <is>
+          <t>SOC-333</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="inlineStr">
+        <is>
+          <t>Global Social Movements</t>
+        </is>
+      </c>
+      <c r="C371" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="inlineStr">
+        <is>
+          <t>LA-201 or LS-201</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F371" s="2" t="inlineStr"/>
+      <c r="G371" s="2" t="inlineStr"/>
+      <c r="H371" s="2" t="inlineStr"/>
+      <c r="I371" s="2" t="inlineStr"/>
+      <c r="J371" s="2" t="inlineStr"/>
+      <c r="K371" s="2" t="inlineStr"/>
+      <c r="L371" s="2" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="inlineStr">
+        <is>
+          <t>SOC-337</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="inlineStr">
+        <is>
+          <t>Religion in Society</t>
+        </is>
+      </c>
+      <c r="C372" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="inlineStr">
+        <is>
+          <t>LA-201 or LS-201</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="inlineStr">
+        <is>
+          <t>Sophomore</t>
+        </is>
+      </c>
+      <c r="F372" s="2" t="inlineStr"/>
+      <c r="G372" s="2" t="inlineStr"/>
+      <c r="H372" s="2" t="inlineStr"/>
+      <c r="I372" s="2" t="inlineStr"/>
+      <c r="J372" s="2" t="inlineStr"/>
+      <c r="K372" s="2" t="inlineStr"/>
+      <c r="L372" s="2" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="inlineStr">
+        <is>
+          <t>SOC-341</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="inlineStr">
+        <is>
+          <t>Law, Politics, and Society</t>
+        </is>
+      </c>
+      <c r="C373" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="inlineStr">
+        <is>
+          <t>LA-201 or LS-201</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F373" s="2" t="inlineStr"/>
+      <c r="G373" s="2" t="inlineStr"/>
+      <c r="H373" s="2" t="inlineStr"/>
+      <c r="I373" s="2" t="inlineStr"/>
+      <c r="J373" s="2" t="inlineStr"/>
+      <c r="K373" s="2" t="inlineStr"/>
+      <c r="L373" s="2" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="inlineStr">
+        <is>
+          <t>SOC-391</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="inlineStr">
+        <is>
+          <t>Sociology Special Topics</t>
+        </is>
+      </c>
+      <c r="C374" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="inlineStr">
+        <is>
+          <t>LA-201 or LS-201</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F374" s="2" t="inlineStr"/>
+      <c r="G374" s="2" t="inlineStr"/>
+      <c r="H374" s="2" t="inlineStr"/>
+      <c r="I374" s="2" t="inlineStr"/>
+      <c r="J374" s="2" t="inlineStr"/>
+      <c r="K374" s="2" t="inlineStr"/>
+      <c r="L374" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
